--- a/data/trans_dic/P25A$voluntad-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,55; 92,34</t>
+          <t>42,75; 91,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,31; 100,0</t>
+          <t>60,08; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,42; 100,0</t>
+          <t>56,03; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,68; 86,79</t>
+          <t>40,59; 87,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,55; 89,69</t>
+          <t>53,6; 90,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,1; 87,85</t>
+          <t>40,92; 87,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,56; 85,14</t>
+          <t>46,94; 84,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,12; 91,73</t>
+          <t>66,75; 91,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,39; 88,67</t>
+          <t>53,24; 85,53</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,48; 87,05</t>
+          <t>58,21; 86,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,65; 84,27</t>
+          <t>62,96; 84,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,39; 94,39</t>
+          <t>72,51; 94,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 71,56</t>
+          <t>47,81; 71,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,88; 82,12</t>
+          <t>63,1; 82,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,99; 76,82</t>
+          <t>52,72; 77,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,11; 73,35</t>
+          <t>55,15; 73,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,34; 80,78</t>
+          <t>67,36; 81,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,91; 83,14</t>
+          <t>66,26; 83,38</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,85; 85,08</t>
+          <t>66,34; 84,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 88,01</t>
+          <t>73,9; 88,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,26; 87,18</t>
+          <t>67,87; 87,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,79; 84,07</t>
+          <t>60,24; 83,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>74,33; 88,77</t>
+          <t>74,13; 88,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,08; 83,49</t>
+          <t>64,87; 83,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,7; 81,6</t>
+          <t>66,93; 81,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,22; 86,49</t>
+          <t>76,53; 86,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,03; 83,2</t>
+          <t>69,18; 82,68</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 75,32</t>
+          <t>58,83; 75,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,64; 85,19</t>
+          <t>72,35; 85,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,52; 63,21</t>
+          <t>43,68; 63,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 79,7</t>
+          <t>57,05; 79,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,64; 87,26</t>
+          <t>69,19; 86,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,67; 75,6</t>
+          <t>56,1; 76,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,84; 74,88</t>
+          <t>60,13; 74,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,63; 84,13</t>
+          <t>73,64; 84,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,05; 66,59</t>
+          <t>52,43; 66,74</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,66; 60,59</t>
+          <t>43,36; 60,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,49; 74,63</t>
+          <t>56,72; 74,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49,27; 65,96</t>
+          <t>48,01; 66,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,32; 82,56</t>
+          <t>35,26; 83,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 84,19</t>
+          <t>57,92; 83,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,44; 83,3</t>
+          <t>59,45; 84,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,96; 60,28</t>
+          <t>44,51; 60,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,05; 74,01</t>
+          <t>60,34; 74,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,19; 68,98</t>
+          <t>54,66; 68,99</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,47; 54,32</t>
+          <t>36,26; 54,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,09; 65,67</t>
+          <t>48,92; 64,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,49; 60,59</t>
+          <t>42,55; 60,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,38; 79,15</t>
+          <t>27,36; 78,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,37; 90,16</t>
+          <t>28,98; 90,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,52; 80,7</t>
+          <t>43,14; 81,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,2; 55,18</t>
+          <t>37,85; 54,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,69; 64,93</t>
+          <t>49,7; 65,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,58; 61,55</t>
+          <t>45,46; 61,29</t>
         </is>
       </c>
     </row>
@@ -1345,27 +1346,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,79; 54,79</t>
+          <t>37,18; 54,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,57; 56,81</t>
+          <t>38,95; 56,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,45; 61,51</t>
+          <t>44,78; 62,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,42; 100,0</t>
+          <t>28,54; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,74; 100,0</t>
+          <t>33,74; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,26; 56,22</t>
+          <t>37,89; 56,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,87; 57,91</t>
+          <t>40,99; 57,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45,57; 62,96</t>
+          <t>45,97; 63,93</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>53,85; 61,65</t>
+          <t>53,55; 61,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,91; 70,62</t>
+          <t>64,17; 70,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,33; 63,93</t>
+          <t>56,39; 64,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,86</t>
+          <t>59,98; 72,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>73,32; 81,51</t>
+          <t>72,9; 81,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,07; 74,74</t>
+          <t>64,35; 74,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,24</t>
+          <t>56,52; 63,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,98; 73,47</t>
+          <t>67,85; 73,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,28; 66,77</t>
+          <t>60,47; 66,96</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, por propia voluntad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8228</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14846</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8445</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10176</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14245</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10684</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18405</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29091</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19129</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4826; 10362</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10085; 16785</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5293; 9447</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6268; 13582</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10307; 17365</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6752; 14464</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12547; 22637</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24038; 33059</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13813; 22193</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29233</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54889</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41727</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41786</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61161</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38379</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71019</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116049</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22968; 34294</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45797; 61247</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35239; 45802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33497; 50321</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52290; 68303</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30559; 44667</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60403; 80317</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>104803; 126625</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70609; 88856</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>64625</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91973</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58440</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>102248</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66267</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113024</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>194221</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>124707</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56354; 71517</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83037; 99014</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50439; 65040</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39919; 55264</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91988; 110327</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>57040; 73417</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>101216; 123742</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>180946; 204704</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>112249; 134149</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84285</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>135184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58049</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40649</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>72327</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58533</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>124935</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>207511</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116581</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>73859; 95411</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>122948; 144630</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47257; 68647</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33516; 46530</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63373; 79570</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>49501; 67729</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>110816; 137093</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192590; 220090</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>102981; 131096</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>66099</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92175</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76121</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10478</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37455</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41351</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>76577</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>129630</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>117471</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55552; 78046</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79542; 104274</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>63853; 88009</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6148; 14538</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29977; 43256</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33838; 48249</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64797; 88515</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>115850; 142178</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>103813; 131022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55059</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>92726</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>63423</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7620</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16573</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62679</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>99524</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>79996</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>44199; 66398</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>79523; 104664</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52437; 74265</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3705; 10682</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3079; 9586</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11114; 20948</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>51269; 73290</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>86070; 112633</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67723; 91320</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>51420</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>67780</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>58118</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6735</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5422</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>58155</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>73201</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60614</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42124; 61999</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>55112; 80563</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>48688; 67926</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2635; 9234</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2162; 6408</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1075; 2495</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46424; 69139</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>60619; 85712</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51131; 71101</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>549572</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>364322</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>165844</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>299655</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>234281</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>524794</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>849228</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>598604</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>334485; 382759</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>523706; 578177</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>341428; 388135</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>150391; 181985</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>281802; 316349</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>216088; 251543</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>494708; 553869</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>816026; 881413</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>569218; 630305</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>